--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H2">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I2">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J2">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>1.263048757404333</v>
+        <v>0.648386433218</v>
       </c>
       <c r="R2">
-        <v>11.367438816639</v>
+        <v>5.835477898962</v>
       </c>
       <c r="S2">
-        <v>0.1710581687651032</v>
+        <v>0.2385758309414463</v>
       </c>
       <c r="T2">
-        <v>0.1710581687651033</v>
+        <v>0.2385758309414463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H3">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I3">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J3">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
-        <v>0.09038791897566667</v>
+        <v>0.06899983651011111</v>
       </c>
       <c r="R3">
-        <v>0.813491270781</v>
+        <v>0.6209985285909999</v>
       </c>
       <c r="S3">
-        <v>0.01224148458864001</v>
+        <v>0.02538870723824809</v>
       </c>
       <c r="T3">
-        <v>0.01224148458864002</v>
+        <v>0.0253887072382481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H4">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I4">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J4">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>0.6123053788823334</v>
+        <v>0.2079797230984445</v>
       </c>
       <c r="R4">
-        <v>5.510748409941001</v>
+        <v>1.871817507886</v>
       </c>
       <c r="S4">
-        <v>0.08292620235174725</v>
+        <v>0.07652679438544091</v>
       </c>
       <c r="T4">
-        <v>0.08292620235174726</v>
+        <v>0.07652679438544091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H5">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I5">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J5">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>1.223245131405</v>
+        <v>0.3862034833801111</v>
       </c>
       <c r="R5">
-        <v>11.009206182645</v>
+        <v>3.475831350421</v>
       </c>
       <c r="S5">
-        <v>0.1656674541677907</v>
+        <v>0.1421047885018165</v>
       </c>
       <c r="T5">
-        <v>0.1656674541677907</v>
+        <v>0.1421047885018165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H6">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I6">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J6">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.2127765046090001</v>
+        <v>0.2000613905147778</v>
       </c>
       <c r="R6">
-        <v>1.914988541481</v>
+        <v>1.800552514633</v>
       </c>
       <c r="S6">
-        <v>0.02881690751943273</v>
+        <v>0.07361321896338414</v>
       </c>
       <c r="T6">
-        <v>0.02881690751943273</v>
+        <v>0.07361321896338416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H7">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I7">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J7">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>0.8223688545510002</v>
+        <v>0.1859535138188889</v>
       </c>
       <c r="R7">
-        <v>7.401319690959001</v>
+        <v>1.67358162437</v>
       </c>
       <c r="S7">
-        <v>0.111375676896309</v>
+        <v>0.06842218128414648</v>
       </c>
       <c r="T7">
-        <v>0.111375676896309</v>
+        <v>0.06842218128414648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.390398</v>
       </c>
       <c r="I8">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J8">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>0.1894031946695555</v>
+        <v>0.127368909092</v>
       </c>
       <c r="R8">
-        <v>1.704628752026</v>
+        <v>1.146320181828</v>
       </c>
       <c r="S8">
-        <v>0.02565139583765318</v>
+        <v>0.04686579139528771</v>
       </c>
       <c r="T8">
-        <v>0.02565139583765318</v>
+        <v>0.04686579139528772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.390398</v>
       </c>
       <c r="I9">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J9">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
         <v>0.01355431491711111</v>
@@ -1013,10 +1013,10 @@
         <v>0.121988834254</v>
       </c>
       <c r="S9">
-        <v>0.001835698166831983</v>
+        <v>0.004987352878656826</v>
       </c>
       <c r="T9">
-        <v>0.001835698166831984</v>
+        <v>0.004987352878656827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,40 +1045,40 @@
         <v>0.390398</v>
       </c>
       <c r="I10">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J10">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>0.0918195708548889</v>
+        <v>0.04085549772044445</v>
       </c>
       <c r="R10">
-        <v>0.8263761376940001</v>
+        <v>0.3676994794840001</v>
       </c>
       <c r="S10">
-        <v>0.0124353771421406</v>
+        <v>0.01503290910762197</v>
       </c>
       <c r="T10">
-        <v>0.01243537714214061</v>
+        <v>0.01503290910762198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.390398</v>
       </c>
       <c r="I11">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J11">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>0.18343435627</v>
+        <v>0.07586573969711111</v>
       </c>
       <c r="R11">
-        <v>1.65090920643</v>
+        <v>0.6827916572739999</v>
       </c>
       <c r="S11">
-        <v>0.024843019628661</v>
+        <v>0.02791503794796439</v>
       </c>
       <c r="T11">
-        <v>0.024843019628661</v>
+        <v>0.0279150379479644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.390398</v>
       </c>
       <c r="I12">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J12">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>0.03190735867266667</v>
+        <v>0.03930002195577778</v>
       </c>
       <c r="R12">
-        <v>0.2871662280540001</v>
+        <v>0.353700197602</v>
       </c>
       <c r="S12">
-        <v>0.004321301384987191</v>
+        <v>0.01446056689925275</v>
       </c>
       <c r="T12">
-        <v>0.004321301384987191</v>
+        <v>0.01446056689925275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.390398</v>
       </c>
       <c r="I13">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J13">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>0.123320091434</v>
+        <v>0.03652867330888888</v>
       </c>
       <c r="R13">
-        <v>1.109880822906</v>
+        <v>0.32875805978</v>
       </c>
       <c r="S13">
-        <v>0.0167015793246152</v>
+        <v>0.01344084043307966</v>
       </c>
       <c r="T13">
-        <v>0.0167015793246152</v>
+        <v>0.01344084043307966</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H14">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I14">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J14">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N14">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q14">
-        <v>0.08653839426122222</v>
+        <v>0.167631588978</v>
       </c>
       <c r="R14">
-        <v>0.7788455483509999</v>
+        <v>1.508684300802</v>
       </c>
       <c r="S14">
-        <v>0.01172013286376905</v>
+        <v>0.06168057131296419</v>
       </c>
       <c r="T14">
-        <v>0.01172013286376905</v>
+        <v>0.06168057131296419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H15">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I15">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J15">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.312473</v>
       </c>
       <c r="O15">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P15">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q15">
-        <v>0.006192971825444444</v>
+        <v>0.01783897941233333</v>
       </c>
       <c r="R15">
-        <v>0.055736746429</v>
+        <v>0.160550814711</v>
       </c>
       <c r="S15">
-        <v>0.0008387312156115587</v>
+        <v>0.00656390867915314</v>
       </c>
       <c r="T15">
-        <v>0.000838731215611559</v>
+        <v>0.006563908679153141</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H16">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I16">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J16">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N16">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q16">
-        <v>0.04195239809655556</v>
+        <v>0.05377035926733334</v>
       </c>
       <c r="R16">
-        <v>0.377571582869</v>
+        <v>0.483933233406</v>
       </c>
       <c r="S16">
-        <v>0.005681728715247121</v>
+        <v>0.01978497310401161</v>
       </c>
       <c r="T16">
-        <v>0.005681728715247123</v>
+        <v>0.01978497310401161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H17">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I17">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J17">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N17">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q17">
-        <v>0.08381122964500001</v>
+        <v>0.09984771468233332</v>
       </c>
       <c r="R17">
-        <v>0.7543010668050001</v>
+        <v>0.8986294321409999</v>
       </c>
       <c r="S17">
-        <v>0.01135078545541511</v>
+        <v>0.03673928120259258</v>
       </c>
       <c r="T17">
-        <v>0.01135078545541511</v>
+        <v>0.03673928120259259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H18">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I18">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J18">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N18">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q18">
-        <v>0.01457848474766667</v>
+        <v>0.05172318091033334</v>
       </c>
       <c r="R18">
-        <v>0.131206362729</v>
+        <v>0.465508628193</v>
       </c>
       <c r="S18">
-        <v>0.001974404305207301</v>
+        <v>0.01903170737761044</v>
       </c>
       <c r="T18">
-        <v>0.001974404305207302</v>
+        <v>0.01903170737761044</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H19">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I19">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J19">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N19">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q19">
-        <v>0.056344998359</v>
+        <v>0.04807577919666666</v>
       </c>
       <c r="R19">
-        <v>0.507104985231</v>
+        <v>0.43268201277</v>
       </c>
       <c r="S19">
-        <v>0.007630958173119706</v>
+        <v>0.01768963442537964</v>
       </c>
       <c r="T19">
-        <v>0.007630958173119708</v>
+        <v>0.01768963442537964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H20">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I20">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J20">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N20">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q20">
-        <v>0.575145347181111</v>
+        <v>0.062983987208</v>
       </c>
       <c r="R20">
-        <v>5.176308124629999</v>
+        <v>0.566855884872</v>
       </c>
       <c r="S20">
-        <v>0.07789351700464517</v>
+        <v>0.02317515653369915</v>
       </c>
       <c r="T20">
-        <v>0.07789351700464518</v>
+        <v>0.02317515653369916</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H21">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I21">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J21">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.312473</v>
       </c>
       <c r="O21">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P21">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q21">
-        <v>0.04115929075222222</v>
+        <v>0.006702615288444444</v>
       </c>
       <c r="R21">
-        <v>0.37043361677</v>
+        <v>0.060323537596</v>
       </c>
       <c r="S21">
-        <v>0.005574316005198919</v>
+        <v>0.002466248412979721</v>
       </c>
       <c r="T21">
-        <v>0.00557431600519892</v>
+        <v>0.002466248412979722</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,55 +1774,55 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06435066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.193052</v>
+      </c>
+      <c r="I22">
+        <v>0.06067644499118856</v>
+      </c>
+      <c r="J22">
+        <v>0.06067644499118857</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="L22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G22">
-        <v>0.3951633333333333</v>
-      </c>
-      <c r="H22">
-        <v>1.18549</v>
-      </c>
-      <c r="I22">
-        <v>0.2605066022664595</v>
-      </c>
-      <c r="J22">
-        <v>0.2605066022664595</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N22">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q22">
-        <v>0.2788210571077778</v>
+        <v>0.02020306340177778</v>
       </c>
       <c r="R22">
-        <v>2.50938951397</v>
+        <v>0.181827570616</v>
       </c>
       <c r="S22">
-        <v>0.03776150300010826</v>
+        <v>0.007433780831471056</v>
       </c>
       <c r="T22">
-        <v>0.03776150300010826</v>
+        <v>0.007433780831471057</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H23">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I23">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J23">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N23">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q23">
-        <v>0.5570202588500001</v>
+        <v>0.03751564500844444</v>
       </c>
       <c r="R23">
-        <v>5.01318232965</v>
+        <v>0.337640805076</v>
       </c>
       <c r="S23">
-        <v>0.07543878641689078</v>
+        <v>0.01380399977953376</v>
       </c>
       <c r="T23">
-        <v>0.07543878641689078</v>
+        <v>0.01380399977953376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H24">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I24">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J24">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N24">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q24">
-        <v>0.09689049286333333</v>
+        <v>0.01943387988311111</v>
       </c>
       <c r="R24">
-        <v>0.87201443577</v>
+        <v>0.174904918948</v>
       </c>
       <c r="S24">
-        <v>0.01312214606347488</v>
+        <v>0.007150757332349403</v>
       </c>
       <c r="T24">
-        <v>0.01312214606347488</v>
+        <v>0.007150757332349405</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H25">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I25">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J25">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N25">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q25">
-        <v>0.37447613767</v>
+        <v>0.01806344663555555</v>
       </c>
       <c r="R25">
-        <v>3.37028523903</v>
+        <v>0.16257101972</v>
       </c>
       <c r="S25">
-        <v>0.05071633377614147</v>
+        <v>0.006646502101155471</v>
       </c>
       <c r="T25">
-        <v>0.05071633377614147</v>
+        <v>0.006646502101155472</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H26">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I26">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J26">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N26">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q26">
-        <v>0.09365997145822222</v>
+        <v>0.031659361906</v>
       </c>
       <c r="R26">
-        <v>0.8429397431239999</v>
+        <v>0.284934257154</v>
       </c>
       <c r="S26">
-        <v>0.01268462766010743</v>
+        <v>0.01164916196088946</v>
       </c>
       <c r="T26">
-        <v>0.01268462766010743</v>
+        <v>0.01164916196088946</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H27">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I27">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J27">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.312473</v>
       </c>
       <c r="O27">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P27">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q27">
-        <v>0.006702615288444444</v>
+        <v>0.003369118605222222</v>
       </c>
       <c r="R27">
-        <v>0.060323537596</v>
+        <v>0.030322067447</v>
       </c>
       <c r="S27">
-        <v>0.0009077536321990583</v>
+        <v>0.00123967780570592</v>
       </c>
       <c r="T27">
-        <v>0.0009077536321990585</v>
+        <v>0.00123967780570592</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H28">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I28">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J28">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N28">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q28">
-        <v>0.04540482223955556</v>
+        <v>0.01015521760688889</v>
       </c>
       <c r="R28">
-        <v>0.408643400156</v>
+        <v>0.09139695846200001</v>
       </c>
       <c r="S28">
-        <v>0.006149300017019881</v>
+        <v>0.003736644313993742</v>
       </c>
       <c r="T28">
-        <v>0.006149300017019882</v>
+        <v>0.003736644313993742</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H29">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I29">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J29">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N29">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q29">
-        <v>0.09070837798</v>
+        <v>0.01885751339522222</v>
       </c>
       <c r="R29">
-        <v>0.81637540182</v>
+        <v>0.169717620557</v>
       </c>
       <c r="S29">
-        <v>0.01228488523340863</v>
+        <v>0.006938681467201461</v>
       </c>
       <c r="T29">
-        <v>0.01228488523340863</v>
+        <v>0.006938681467201464</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H30">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I30">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J30">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N30">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q30">
-        <v>0.01577820431066667</v>
+        <v>0.009768581884555556</v>
       </c>
       <c r="R30">
-        <v>0.142003838796</v>
+        <v>0.087917236961</v>
       </c>
       <c r="S30">
-        <v>0.002136885626910351</v>
+        <v>0.003594380481807252</v>
       </c>
       <c r="T30">
-        <v>0.002136885626910351</v>
+        <v>0.003594380481807253</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H31">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I31">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J31">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N31">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q31">
-        <v>0.06098184491600001</v>
+        <v>0.009079723587777776</v>
       </c>
       <c r="R31">
-        <v>0.548836604244</v>
+        <v>0.08171751228999999</v>
       </c>
       <c r="S31">
-        <v>0.008258939061613057</v>
+        <v>0.003340912901156299</v>
       </c>
       <c r="T31">
-        <v>0.008258939061613057</v>
+        <v>0.003340912901156299</v>
       </c>
     </row>
   </sheetData>
